--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.231719</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H2">
-        <v>15.695157</v>
+        <v>0.03404</v>
       </c>
       <c r="I2">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="J2">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N2">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O2">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P2">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q2">
-        <v>7.754023156935666</v>
+        <v>0.003176707355555555</v>
       </c>
       <c r="R2">
-        <v>69.786208412421</v>
+        <v>0.0285903662</v>
       </c>
       <c r="S2">
-        <v>0.05081619631510378</v>
+        <v>3.559655198510038E-05</v>
       </c>
       <c r="T2">
-        <v>0.05081619631510379</v>
+        <v>3.559655198510038E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.231719</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H3">
-        <v>15.695157</v>
+        <v>0.03404</v>
       </c>
       <c r="I3">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="J3">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.097371</v>
       </c>
       <c r="O3">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P3">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q3">
-        <v>12.37715023691633</v>
+        <v>0.02684383431555555</v>
       </c>
       <c r="R3">
-        <v>111.394352132247</v>
+        <v>0.24159450884</v>
       </c>
       <c r="S3">
-        <v>0.08111398219105061</v>
+        <v>0.0003007982280841808</v>
       </c>
       <c r="T3">
-        <v>0.08111398219105061</v>
+        <v>0.0003007982280841807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.231719</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H4">
-        <v>15.695157</v>
+        <v>0.03404</v>
       </c>
       <c r="I4">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="J4">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N4">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O4">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P4">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q4">
-        <v>35.18243309011434</v>
+        <v>0.0779185812</v>
       </c>
       <c r="R4">
-        <v>316.641897811029</v>
+        <v>0.7012672308</v>
       </c>
       <c r="S4">
-        <v>0.2305690079286266</v>
+        <v>0.0008731156244028656</v>
       </c>
       <c r="T4">
-        <v>0.2305690079286266</v>
+        <v>0.0008731156244028656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>24.950836</v>
       </c>
       <c r="I5">
-        <v>0.5762706133406404</v>
+        <v>0.8865539289740954</v>
       </c>
       <c r="J5">
-        <v>0.5762706133406403</v>
+        <v>0.8865539289740952</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N5">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O5">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P5">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q5">
-        <v>12.32669161123422</v>
+        <v>2.328481323397778</v>
       </c>
       <c r="R5">
-        <v>110.940224501108</v>
+        <v>20.95633191058</v>
       </c>
       <c r="S5">
-        <v>0.08078330025000444</v>
+        <v>0.02609176647314083</v>
       </c>
       <c r="T5">
-        <v>0.08078330025000444</v>
+        <v>0.02609176647314083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.950836</v>
       </c>
       <c r="I6">
-        <v>0.5762706133406404</v>
+        <v>0.8865539289740954</v>
       </c>
       <c r="J6">
-        <v>0.5762706133406403</v>
+        <v>0.8865539289740952</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.097371</v>
       </c>
       <c r="O6">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P6">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q6">
         <v>19.67614887246178</v>
@@ -818,10 +818,10 @@
         <v>177.085339852156</v>
       </c>
       <c r="S6">
-        <v>0.1289481632427012</v>
+        <v>0.2204808242661278</v>
       </c>
       <c r="T6">
-        <v>0.1289481632427012</v>
+        <v>0.2204808242661278</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.950836</v>
       </c>
       <c r="I7">
-        <v>0.5762706133406404</v>
+        <v>0.8865539289740954</v>
       </c>
       <c r="J7">
-        <v>0.5762706133406403</v>
+        <v>0.8865539289740952</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N7">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O7">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P7">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q7">
-        <v>55.93006289216579</v>
+        <v>57.11321212908001</v>
       </c>
       <c r="R7">
-        <v>503.3705660294921</v>
+        <v>514.01890916172</v>
       </c>
       <c r="S7">
-        <v>0.3665391498479347</v>
+        <v>0.6399813382348267</v>
       </c>
       <c r="T7">
-        <v>0.3665391498479347</v>
+        <v>0.6399813382348266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8836963333333333</v>
+        <v>1.052914333333334</v>
       </c>
       <c r="H8">
-        <v>2.651089</v>
+        <v>3.158743</v>
       </c>
       <c r="I8">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="J8">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N8">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O8">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P8">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q8">
-        <v>1.309741947601889</v>
+        <v>0.2947826710461112</v>
       </c>
       <c r="R8">
-        <v>11.787677528417</v>
+        <v>2.653044039415</v>
       </c>
       <c r="S8">
-        <v>0.008583428574356546</v>
+        <v>0.003303183296329963</v>
       </c>
       <c r="T8">
-        <v>0.008583428574356547</v>
+        <v>0.003303183296329963</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8836963333333333</v>
+        <v>1.052914333333334</v>
       </c>
       <c r="H9">
-        <v>2.651089</v>
+        <v>3.158743</v>
       </c>
       <c r="I9">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="J9">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>7.097371</v>
       </c>
       <c r="O9">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P9">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q9">
-        <v>2.090640243002111</v>
+        <v>2.490974551628112</v>
       </c>
       <c r="R9">
-        <v>18.815762187019</v>
+        <v>22.418770964653</v>
       </c>
       <c r="S9">
-        <v>0.01370106625457077</v>
+        <v>0.0279125821790044</v>
       </c>
       <c r="T9">
-        <v>0.01370106625457077</v>
+        <v>0.02791258217900439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8836963333333333</v>
+        <v>1.052914333333334</v>
       </c>
       <c r="H10">
-        <v>2.651089</v>
+        <v>3.158743</v>
       </c>
       <c r="I10">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="J10">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N10">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O10">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P10">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q10">
-        <v>5.942709675248111</v>
+        <v>7.230457489290002</v>
       </c>
       <c r="R10">
-        <v>53.484387077233</v>
+        <v>65.07411740361</v>
       </c>
       <c r="S10">
-        <v>0.03894570539565132</v>
+        <v>0.08102079514609815</v>
       </c>
       <c r="T10">
-        <v>0.03894570539565132</v>
+        <v>0.08102079514609815</v>
       </c>
     </row>
   </sheetData>
